--- a/template_excel/template_SKID_HH.xlsx
+++ b/template_excel/template_SKID_HH.xlsx
@@ -11816,4 +11816,270 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100260B53F379FC324F8380158707F79306" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cc1db398b3b42028473d294ab7d7c2a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="013edbdd-9b27-46fe-aec1-397647bd8b02" xmlns:ns3="9d7a9f5c-26b8-4c9e-9ff0-8ebffaf912dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c26e9d514a351cad79ec610caaceaf8" ns2:_="" ns3:_="">
+    <xsd:import namespace="013edbdd-9b27-46fe-aec1-397647bd8b02"/>
+    <xsd:import namespace="9d7a9f5c-26b8-4c9e-9ff0-8ebffaf912dd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:b1b820adfd3e4a078472514c1a5cb5ff" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="013edbdd-9b27-46fe-aec1-397647bd8b02" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="b1b820adfd3e4a078472514c1a5cb5ff" ma:index="6" nillable="true" ma:displayName="Security Classification_0" ma:hidden="true" ma:internalName="b1b820adfd3e4a078472514c1a5cb5ff" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="7" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{06fb96f4-38bd-4123-94b2-8c5938bb75db}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="013edbdd-9b27-46fe-aec1-397647bd8b02">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:SearchPeopleOnly="false" ma:SharePointGroup="0" ma:internalName="SharedWithUsers" ma:readOnly="true" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9d7a9f5c-26b8-4c9e-9ff0-8ebffaf912dd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="25" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9f302db3-da21-42b3-bdf2-187d2253b329" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="20" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75B2A93E-EA9F-432A-A026-CF30C77EE8AE}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BCAE8C6-3B6E-40F1-A295-3CDF05CC7B34}"/>
 </file>
--- a/template_excel/template_SKID_HH.xlsx
+++ b/template_excel/template_SKID_HH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhoaenergy.sharepoint.com/sites/Q1043-HyESScontainerHDevolution/Documenti condivisi/General/08_SW standardization/11_Alarms_Template/Alarms_automation_HH/template_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{97AE25DD-7504-42E7-9F9B-D6394A942A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63FE6D70-2044-4357-8C95-B699ECC10A2F}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{97AE25DD-7504-42E7-9F9B-D6394A942A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BBF9EF9-95F4-40E9-B532-817B983404CA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82A76932-9AD5-4175-BD93-A2A70F78D2A2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82A76932-9AD5-4175-BD93-A2A70F78D2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="128">
   <si>
     <t/>
   </si>
@@ -265,30 +265,6 @@
 Check the status of MV circuit-breaker and of the transformer.</t>
   </si>
   <si>
-    <t>wHMI_MValarm1</t>
-  </si>
-  <si>
-    <t>wHMI_MValarm2</t>
-  </si>
-  <si>
-    <t>wHMI_MValarm3</t>
-  </si>
-  <si>
-    <t>wHMI_MVwarning1</t>
-  </si>
-  <si>
-    <t>wHMI_MVfault1</t>
-  </si>
-  <si>
-    <t>A | Spare</t>
-  </si>
-  <si>
-    <t>W | Spare</t>
-  </si>
-  <si>
-    <t>F | Spare</t>
-  </si>
-  <si>
     <t>A | QS1 switch status | 8QBA1, MVSKID</t>
   </si>
   <si>
@@ -449,6 +425,111 @@
   </si>
   <si>
     <t>A | Q0A main breaker status |TRAFOaux,MVSKID</t>
+  </si>
+  <si>
+    <t>A | Spare wHMI_MValarm1.15 | MVSKID</t>
+  </si>
+  <si>
+    <t>A | Spare wHMI_MValarm2.13 | MVSKID</t>
+  </si>
+  <si>
+    <t>A | Spare wHMI_MValarm2.14 | MVSKID</t>
+  </si>
+  <si>
+    <t>A | Spare wHMI_MValarm2.15 | MVSKID</t>
+  </si>
+  <si>
+    <t>A | Spare wHMI_MValarm3.3 | MVSKID</t>
+  </si>
+  <si>
+    <t>A | Spare wHMI_MValarm3.5 | MVSKID</t>
+  </si>
+  <si>
+    <t>A | Spare wHMI_MValarm3.11 | MVSKID</t>
+  </si>
+  <si>
+    <t>A | Spare wHMI_MValarm3.12 | MVSKID</t>
+  </si>
+  <si>
+    <t>A | Spare wHMI_MValarm3.13 | MVSKID</t>
+  </si>
+  <si>
+    <t>A | Spare wHMI_MValarm3.14 | MVSKID</t>
+  </si>
+  <si>
+    <t>A | Spare wHMI_MValarm3.15 | MVSKID</t>
+  </si>
+  <si>
+    <t>W | Spare wHMI_MVwarning1.7 | MVSKID</t>
+  </si>
+  <si>
+    <t>W | Spare wHMI_MVwarning1.8 | MVSKID</t>
+  </si>
+  <si>
+    <t>W | Spare wHMI_MVwarning1.9 | MVSKID</t>
+  </si>
+  <si>
+    <t>W | Spare wHMI_MVwarning1.12 | MVSKID</t>
+  </si>
+  <si>
+    <t>W | Spare wHMI_MVwarning1.14 | MVSKID</t>
+  </si>
+  <si>
+    <t>W | Spare wHMI_MVwarning1.15 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.3 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.4 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.5 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.6 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.7 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.8 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.9 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.10 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.11 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.12 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.13 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.14 | MVSKID</t>
+  </si>
+  <si>
+    <t>F | Spare wHMI_MVfault1.15 | MVSKID</t>
+  </si>
+  <si>
+    <t>_DiagnosticDB_wHMI_MValarm1</t>
+  </si>
+  <si>
+    <t>_DiagnosticDB_wHMI_MValarm2</t>
+  </si>
+  <si>
+    <t>_DiagnosticDB_wHMI_MValarm3</t>
+  </si>
+  <si>
+    <t>_DiagnosticDB_wHMI_MVwarning1</t>
+  </si>
+  <si>
+    <t>_DiagnosticDB_wHMI_MVfault1</t>
   </si>
 </sst>
 </file>
@@ -503,7 +584,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -530,7 +611,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -829,29 +910,29 @@
   <dimension ref="A1:AS80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2"/>
-    <col min="5" max="5" width="20.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="212.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="20.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="212.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
@@ -980,15 +1061,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1117,15 +1198,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1254,15 +1335,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -1391,15 +1472,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -1528,15 +1609,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -1665,15 +1746,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -1802,15 +1883,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -1939,15 +2020,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -2076,15 +2157,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
@@ -2213,15 +2294,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -2350,15 +2431,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D12" s="2">
         <v>11</v>
@@ -2487,15 +2568,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2">
         <v>12</v>
@@ -2624,15 +2705,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
@@ -2761,15 +2842,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D15" s="2">
         <v>14</v>
@@ -2898,15 +2979,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D16" s="2">
         <v>15</v>
@@ -3035,15 +3116,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3172,15 +3253,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -3309,15 +3390,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -3446,15 +3527,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -3583,15 +3664,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -3720,15 +3801,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D22" s="2">
         <v>5</v>
@@ -3857,15 +3938,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D23" s="2">
         <v>6</v>
@@ -3994,15 +4075,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D24" s="2">
         <v>7</v>
@@ -4131,15 +4212,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D25" s="2">
         <v>8</v>
@@ -4268,15 +4349,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D26" s="2">
         <v>9</v>
@@ -4405,15 +4486,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D27" s="2">
         <v>10</v>
@@ -4542,15 +4623,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D28" s="2">
         <v>11</v>
@@ -4679,15 +4760,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D29" s="2">
         <v>12</v>
@@ -4816,15 +4897,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D30" s="2">
         <v>13</v>
@@ -4953,15 +5034,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D31" s="2">
         <v>14</v>
@@ -5090,15 +5171,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D32" s="2">
         <v>15</v>
@@ -5227,15 +5308,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -5364,15 +5445,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -5501,15 +5582,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
@@ -5638,15 +5719,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
@@ -5775,15 +5856,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D37" s="2">
         <v>4</v>
@@ -5912,15 +5993,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D38" s="2">
         <v>5</v>
@@ -6049,15 +6130,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D39" s="2">
         <v>6</v>
@@ -6186,15 +6267,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D40" s="2">
         <v>7</v>
@@ -6323,15 +6404,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D41" s="2">
         <v>8</v>
@@ -6460,15 +6541,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D42" s="2">
         <v>9</v>
@@ -6597,15 +6678,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D43" s="2">
         <v>10</v>
@@ -6734,15 +6815,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D44" s="2">
         <v>11</v>
@@ -6871,15 +6952,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D45" s="2">
         <v>12</v>
@@ -7008,15 +7089,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D46" s="2">
         <v>13</v>
@@ -7145,15 +7226,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D47" s="2">
         <v>14</v>
@@ -7282,15 +7363,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D48" s="2">
         <v>15</v>
@@ -7419,15 +7500,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -7556,15 +7637,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -7693,15 +7774,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
@@ -7830,15 +7911,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D52" s="2">
         <v>3</v>
@@ -7967,15 +8048,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D53" s="2">
         <v>4</v>
@@ -8104,15 +8185,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2">
         <v>5</v>
@@ -8241,15 +8322,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D55" s="2">
         <v>6</v>
@@ -8378,15 +8459,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D56" s="2">
         <v>7</v>
@@ -8515,15 +8596,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D57" s="2">
         <v>8</v>
@@ -8652,15 +8733,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D58" s="2">
         <v>9</v>
@@ -8789,15 +8870,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D59" s="2">
         <v>10</v>
@@ -8926,15 +9007,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D60" s="2">
         <v>11</v>
@@ -9063,15 +9144,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D61" s="2">
         <v>12</v>
@@ -9200,15 +9281,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D62" s="2">
         <v>13</v>
@@ -9337,15 +9418,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D63" s="2">
         <v>14</v>
@@ -9474,15 +9555,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D64" s="2">
         <v>15</v>
@@ -9611,15 +9692,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -9649,7 +9730,7 @@
         <v>4</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N65" t="s">
         <v>3</v>
@@ -9748,15 +9829,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="72" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
@@ -9786,7 +9867,7 @@
         <v>4</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N66" t="s">
         <v>3</v>
@@ -9885,15 +9966,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -10022,15 +10103,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D68" s="2">
         <v>3</v>
@@ -10159,15 +10240,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D69" s="2">
         <v>4</v>
@@ -10296,15 +10377,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D70" s="2">
         <v>5</v>
@@ -10433,15 +10514,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D71" s="2">
         <v>6</v>
@@ -10570,15 +10651,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D72" s="2">
         <v>7</v>
@@ -10707,15 +10788,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D73" s="2">
         <v>8</v>
@@ -10844,15 +10925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D74" s="2">
         <v>9</v>
@@ -10981,15 +11062,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D75" s="2">
         <v>10</v>
@@ -11118,15 +11199,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D76" s="2">
         <v>11</v>
@@ -11255,15 +11336,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D77" s="2">
         <v>12</v>
@@ -11392,15 +11473,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D78" s="2">
         <v>13</v>
@@ -11529,15 +11610,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D79" s="2">
         <v>14</v>
@@ -11666,15 +11747,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D80" s="2">
         <v>15</v>
@@ -12085,7 +12166,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F00438-8C57-4BB3-88E3-983F346E1CB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F00438-8C57-4BB3-88E3-983F346E1CB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="013edbdd-9b27-46fe-aec1-397647bd8b02"/>
+    <ds:schemaRef ds:uri="9d7a9f5c-26b8-4c9e-9ff0-8ebffaf912dd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12097,5 +12193,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE18F220-5DDD-4EC0-B997-3E045187C5E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE18F220-5DDD-4EC0-B997-3E045187C5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9d7a9f5c-26b8-4c9e-9ff0-8ebffaf912dd"/>
+    <ds:schemaRef ds:uri="013edbdd-9b27-46fe-aec1-397647bd8b02"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>